--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/22_Çanakkale_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/22_Çanakkale_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA1F5A8-7DED-44A9-8483-52F6B7B19D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E783F02-6352-4A4B-8B65-E72829F73713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{8BA8E43B-0509-4090-AA2D-C3674652D232}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{14C92A27-8089-4522-A1E0-849E25CADFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{40C6AE68-08A1-4822-A89A-37C1FC134265}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{85D9DFFB-172D-44EA-8B80-FE048E50E35B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{688CD6ED-2A0C-4E32-BA40-10242691C85F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{CBFDDEE2-2E04-4C2D-836D-4C4C1CE5AEB7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{31775D5A-B193-4CBC-85B7-8004E6B311CA}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{64F2BAEC-B7EE-40CB-B5DE-583E96E8DC56}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{2BDA8932-1A97-4966-A457-8588AB0F8D39}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7DE49CAF-D022-41FE-9A72-58FDBDC0AF6A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4D3F17FA-EE5B-44E9-9A11-529D3A6BEB38}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{E1093149-4695-44F5-B9A8-E67990EC593F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{689469B1-AC06-4A81-9AA2-C1BD718960E4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{D8A47B3A-7D20-4731-8C04-BBB97DC05146}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{7CB6AB8D-AF6D-443E-A78D-77A36E24E26D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{C35D4391-F9BC-4C99-A805-1D6D13881B57}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12F0065-8EF6-4D38-9CE1-55A266F6B837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA5C5AE-387B-4FBE-B9FC-E5F1D435D79B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2438,7 +2438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F189471F-519A-47B2-9CC6-4CA02F7C9A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A52011-357C-45B4-B4CD-7CEF61E9B0E6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3711,7 +3711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0723662E-24E8-4A4C-AA4C-3683B8F7CAB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C18E934-5A18-4728-8CE9-4FF175C16E45}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4982,7 +4982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5166C48-79E8-4CD6-A0A4-2DB8D5C95A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1250E816-029D-47B5-AF34-4BA995C8CD66}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6251,7 +6251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7ABA90-7D8C-4C34-A483-1D4C089E5872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCC03CE-C6B8-4C19-A050-A2EDDE9AF9B3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7518,7 +7518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAFB568-0680-4455-904F-84C788B75ED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832AB2FF-A41A-47B8-AF61-E48ACD81EA9B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
